--- a/eves_lakasar_valtozas_2010_2023.xlsx
+++ b/eves_lakasar_valtozas_2010_2023.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Lakásár Változás" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -420,7 +420,7 @@
         <v>2013</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -428,7 +428,7 @@
         <v>2014</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -436,7 +436,7 @@
         <v>2015</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -444,7 +444,7 @@
         <v>2016</v>
       </c>
       <c r="B8">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -460,7 +460,7 @@
         <v>2018</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -468,7 +468,7 @@
         <v>2019</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -476,7 +476,7 @@
         <v>2020</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -484,7 +484,7 @@
         <v>2021</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -492,7 +492,7 @@
         <v>2022</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -500,7 +500,7 @@
         <v>2023</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
